--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8814750-BD11-FB41-98A9-3736FF8DE2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D075C-93A1-A744-BAC9-E59A370A6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{9913BBFC-7E72-BF43-8648-AB8236EFD7A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
   <si>
     <t>姓名</t>
   </si>
@@ -424,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,11 +437,8 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,51 +782,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C42D4A-921A-F74D-B579-7A124A627B2B}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,15 +851,12 @@
         <v>77</v>
       </c>
       <c r="I2" s="3">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3">
         <v>84</v>
       </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,16 +881,13 @@
       <c r="H3" s="3">
         <v>78</v>
       </c>
-      <c r="I3" s="3">
-        <v>7</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="K3" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -922,16 +912,13 @@
       <c r="H4" s="3">
         <v>76</v>
       </c>
-      <c r="I4" s="3">
-        <v>8</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="K4" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,15 +944,12 @@
         <v>94</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
         <v>75</v>
       </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -991,15 +975,12 @@
         <v>92</v>
       </c>
       <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
         <v>87</v>
       </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1025,15 +1006,12 @@
         <v>87</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
         <v>81</v>
       </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1059,15 +1037,12 @@
         <v>89</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
         <v>66</v>
       </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1092,16 +1067,13 @@
       <c r="H9" s="3">
         <v>84</v>
       </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="K9" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1127,15 +1099,12 @@
         <v>84</v>
       </c>
       <c r="I10" s="3">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
         <v>81</v>
       </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,16 +1129,13 @@
       <c r="H11" s="3">
         <v>66</v>
       </c>
-      <c r="I11" s="3">
-        <v>12</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="K11" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,16 +1160,13 @@
       <c r="H12" s="3">
         <v>80</v>
       </c>
-      <c r="I12" s="3">
-        <v>6</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="K12" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1228,16 +1191,13 @@
       <c r="H13" s="3">
         <v>71</v>
       </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
+      <c r="K13" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,16 +1222,13 @@
       <c r="H14" s="3">
         <v>89</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1297,15 +1254,12 @@
         <v>78</v>
       </c>
       <c r="I15" s="3">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3">
         <v>68</v>
       </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1331,15 +1285,12 @@
         <v>87</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
         <v>75</v>
       </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,15 +1316,12 @@
         <v>80</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
         <v>69</v>
       </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1399,15 +1347,12 @@
         <v>77</v>
       </c>
       <c r="I18" s="3">
-        <v>12</v>
-      </c>
-      <c r="J18" s="3">
         <v>65</v>
       </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1432,16 +1377,13 @@
       <c r="H19" s="3">
         <v>68</v>
       </c>
-      <c r="I19" s="3">
-        <v>13</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>66</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,15 +1409,12 @@
         <v>75</v>
       </c>
       <c r="I20" s="3">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
         <v>68</v>
       </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1501,15 +1440,12 @@
         <v>79</v>
       </c>
       <c r="I21" s="3">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
         <v>76</v>
       </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1535,15 +1471,12 @@
         <v>75</v>
       </c>
       <c r="I22" s="3">
-        <v>14</v>
-      </c>
-      <c r="J22" s="3">
         <v>74</v>
       </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1568,16 +1501,13 @@
       <c r="H23" s="3">
         <v>78</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
+      <c r="K23" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1602,16 +1532,13 @@
       <c r="H24" s="3">
         <v>75</v>
       </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>76</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1636,16 +1563,13 @@
       <c r="H25" s="3">
         <v>75</v>
       </c>
-      <c r="I25" s="3">
-        <v>3</v>
-      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
+      <c r="K25" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1670,16 +1594,13 @@
       <c r="H26" s="3">
         <v>83</v>
       </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
+      <c r="K26" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1704,16 +1625,13 @@
       <c r="H27" s="3">
         <v>74</v>
       </c>
-      <c r="I27" s="3">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>73</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1738,16 +1656,13 @@
       <c r="H28" s="3">
         <v>71</v>
       </c>
-      <c r="I28" s="3">
-        <v>9</v>
-      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
+      <c r="K28" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1773,15 +1688,12 @@
         <v>68</v>
       </c>
       <c r="I29" s="3">
-        <v>21</v>
-      </c>
-      <c r="J29" s="3">
         <v>70</v>
       </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1807,15 +1719,12 @@
         <v>75</v>
       </c>
       <c r="I30" s="3">
-        <v>14</v>
-      </c>
-      <c r="J30" s="3">
         <v>72</v>
       </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,16 +1749,13 @@
       <c r="H31" s="3">
         <v>63</v>
       </c>
-      <c r="I31" s="3">
-        <v>14</v>
-      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3">
+      <c r="K31" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,15 +1781,12 @@
         <v>86</v>
       </c>
       <c r="I32" s="3">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3">
         <v>65</v>
       </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,16 +1811,13 @@
       <c r="H33" s="3">
         <v>81</v>
       </c>
-      <c r="I33" s="3">
-        <v>5</v>
-      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3">
+      <c r="K33" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1943,15 +1843,12 @@
         <v>75</v>
       </c>
       <c r="I34" s="3">
-        <v>4</v>
-      </c>
-      <c r="J34" s="3">
         <v>59</v>
       </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1977,15 +1874,12 @@
         <v>72</v>
       </c>
       <c r="I35" s="3">
-        <v>19</v>
-      </c>
-      <c r="J35" s="3">
         <v>65</v>
       </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2010,16 +1904,13 @@
       <c r="H36" s="3">
         <v>86</v>
       </c>
-      <c r="I36" s="3">
-        <v>2</v>
-      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3">
+      <c r="K36" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2045,15 +1936,12 @@
         <v>81</v>
       </c>
       <c r="I37" s="3">
-        <v>9</v>
-      </c>
-      <c r="J37" s="3">
         <v>72</v>
       </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2078,16 +1966,13 @@
       <c r="H38" s="3">
         <v>77</v>
       </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>54</v>
       </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2112,16 +1997,13 @@
       <c r="H39" s="3">
         <v>72</v>
       </c>
-      <c r="I39" s="3">
-        <v>9</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>68</v>
       </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2146,16 +2028,13 @@
       <c r="H40" s="3">
         <v>68</v>
       </c>
-      <c r="I40" s="3">
-        <v>12</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3">
+      <c r="K40" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2181,15 +2060,12 @@
         <v>75</v>
       </c>
       <c r="I41" s="3">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3">
         <v>68</v>
       </c>
+      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2214,16 +2090,13 @@
       <c r="H42" s="3">
         <v>72</v>
       </c>
-      <c r="I42" s="3">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
         <v>59</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2248,16 +2121,13 @@
       <c r="H43" s="3">
         <v>56</v>
       </c>
-      <c r="I43" s="3">
-        <v>21</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
         <v>65</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -2283,15 +2153,12 @@
         <v>87</v>
       </c>
       <c r="I44" s="3">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
         <v>73</v>
       </c>
+      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -2316,16 +2183,13 @@
       <c r="H45" s="3">
         <v>64</v>
       </c>
-      <c r="I45" s="3">
-        <v>15</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
         <v>59</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -2351,15 +2215,12 @@
         <v>74</v>
       </c>
       <c r="I46" s="3">
-        <v>18</v>
-      </c>
-      <c r="J46" s="3">
         <v>65</v>
       </c>
+      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -2385,15 +2246,12 @@
         <v>75</v>
       </c>
       <c r="I47" s="3">
-        <v>16</v>
-      </c>
-      <c r="J47" s="3">
         <v>72</v>
       </c>
+      <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -2418,16 +2276,13 @@
       <c r="H48" s="3">
         <v>67</v>
       </c>
-      <c r="I48" s="3">
-        <v>11</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3">
+      <c r="K48" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -2452,16 +2307,13 @@
       <c r="H49" s="3">
         <v>72</v>
       </c>
-      <c r="I49" s="3">
-        <v>7</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
         <v>69</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,15 +2339,12 @@
         <v>69</v>
       </c>
       <c r="I50" s="3">
-        <v>20</v>
-      </c>
-      <c r="J50" s="3">
         <v>65</v>
       </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -2520,16 +2369,13 @@
       <c r="H51" s="3">
         <v>73</v>
       </c>
-      <c r="I51" s="3">
-        <v>4</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
         <v>58</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2554,16 +2400,13 @@
       <c r="H52" s="3">
         <v>72</v>
       </c>
-      <c r="I52" s="3">
-        <v>5</v>
-      </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -2589,15 +2432,12 @@
         <v>60</v>
       </c>
       <c r="I53" s="3">
-        <v>22</v>
-      </c>
-      <c r="J53" s="3">
         <v>70</v>
       </c>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2622,16 +2462,13 @@
       <c r="H54" s="3">
         <v>68</v>
       </c>
-      <c r="I54" s="3">
-        <v>10</v>
-      </c>
+      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3">
+      <c r="K54" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -2656,16 +2493,13 @@
       <c r="H55" s="3">
         <v>69</v>
       </c>
-      <c r="I55" s="3">
-        <v>9</v>
-      </c>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3">
+      <c r="K55" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -2691,15 +2525,12 @@
         <v>66</v>
       </c>
       <c r="I56" s="3">
-        <v>15</v>
-      </c>
-      <c r="J56" s="3">
         <v>64</v>
       </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -2724,16 +2555,13 @@
       <c r="H57" s="3">
         <v>65</v>
       </c>
-      <c r="I57" s="3">
-        <v>13</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>68</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -2758,16 +2586,13 @@
       <c r="H58" s="3">
         <v>63</v>
       </c>
-      <c r="I58" s="3">
-        <v>13</v>
-      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -2793,15 +2618,12 @@
         <v>75</v>
       </c>
       <c r="I59" s="3">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
         <v>81</v>
       </c>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -2826,16 +2648,13 @@
       <c r="H60" s="3">
         <v>72</v>
       </c>
-      <c r="I60" s="3">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>51</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -2860,16 +2679,13 @@
       <c r="H61" s="3">
         <v>84</v>
       </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
         <v>62</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -2894,16 +2710,13 @@
       <c r="H62" s="3">
         <v>69</v>
       </c>
-      <c r="I62" s="3">
-        <v>9</v>
-      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -2928,16 +2741,13 @@
       <c r="H63" s="3">
         <v>65</v>
       </c>
-      <c r="I63" s="3">
-        <v>13</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
         <v>59</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -2962,16 +2772,13 @@
       <c r="H64" s="3">
         <v>61</v>
       </c>
-      <c r="I64" s="3">
-        <v>17</v>
-      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3">
+      <c r="K64" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -2996,16 +2803,13 @@
       <c r="H65" s="3">
         <v>63</v>
       </c>
-      <c r="I65" s="3">
-        <v>16</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
         <v>57</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,15 +2835,12 @@
         <v>67</v>
       </c>
       <c r="I66" s="3">
-        <v>14</v>
-      </c>
-      <c r="J66" s="3">
         <v>62</v>
       </c>
+      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,15 +2866,12 @@
         <v>69</v>
       </c>
       <c r="I67" s="3">
-        <v>12</v>
-      </c>
-      <c r="J67" s="3">
         <v>58</v>
       </c>
+      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,15 +2897,12 @@
         <v>60</v>
       </c>
       <c r="I68" s="3">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3">
         <v>65</v>
       </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -3130,18 +2925,15 @@
         <v>23</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="I69" s="3">
         <v>68</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -3166,16 +2958,13 @@
       <c r="H70" s="3">
         <v>70</v>
       </c>
-      <c r="I70" s="3">
-        <v>10</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
         <v>60</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -3200,16 +2989,13 @@
       <c r="H71" s="3">
         <v>58</v>
       </c>
-      <c r="I71" s="3">
-        <v>21</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
         <v>52</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -3234,16 +3020,13 @@
       <c r="H72" s="3">
         <v>60</v>
       </c>
-      <c r="I72" s="3">
-        <v>18</v>
-      </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3">
+      <c r="K72" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -3269,15 +3052,12 @@
         <v>60</v>
       </c>
       <c r="I73" s="3">
-        <v>19</v>
-      </c>
-      <c r="J73" s="3">
         <v>68</v>
       </c>
+      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
@@ -3303,15 +3083,12 @@
         <v>47</v>
       </c>
       <c r="I74" s="3">
-        <v>25</v>
-      </c>
-      <c r="J74" s="3">
         <v>63</v>
       </c>
+      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -3336,16 +3113,13 @@
       <c r="H75" s="3">
         <v>60</v>
       </c>
-      <c r="I75" s="3">
-        <v>18</v>
-      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3">
+      <c r="K75" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -3370,16 +3144,13 @@
       <c r="H76" s="3">
         <v>62</v>
       </c>
-      <c r="I76" s="3">
-        <v>16</v>
-      </c>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3">
+      <c r="K76" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
@@ -3405,15 +3176,12 @@
         <v>57</v>
       </c>
       <c r="I77" s="3">
-        <v>23</v>
-      </c>
-      <c r="J77" s="3">
         <v>56</v>
       </c>
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -3438,16 +3206,13 @@
       <c r="H78" s="3">
         <v>60</v>
       </c>
-      <c r="I78" s="3">
-        <v>18</v>
-      </c>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3">
+      <c r="K78" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -3472,16 +3237,13 @@
       <c r="H79" s="3">
         <v>62</v>
       </c>
-      <c r="I79" s="3">
-        <v>18</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>53</v>
       </c>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -3506,16 +3268,13 @@
       <c r="H80" s="3">
         <v>53</v>
       </c>
-      <c r="I80" s="3">
-        <v>15</v>
-      </c>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3">
+      <c r="K80" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -3541,15 +3300,12 @@
         <v>50</v>
       </c>
       <c r="I81" s="3">
-        <v>24</v>
-      </c>
-      <c r="J81" s="3">
         <v>58</v>
       </c>
+      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -3574,16 +3330,13 @@
       <c r="H82" s="3">
         <v>69</v>
       </c>
-      <c r="I82" s="3">
-        <v>9</v>
-      </c>
+      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3">
+      <c r="K82" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -3609,15 +3362,12 @@
         <v>58</v>
       </c>
       <c r="I83" s="3">
-        <v>21</v>
-      </c>
-      <c r="J83" s="3">
         <v>59</v>
       </c>
+      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12">
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -3643,15 +3393,12 @@
         <v>70</v>
       </c>
       <c r="I84" s="3">
-        <v>10</v>
-      </c>
-      <c r="J84" s="3">
         <v>58</v>
       </c>
+      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12">
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3677,15 +3424,12 @@
         <v>63</v>
       </c>
       <c r="I85" s="3">
-        <v>17</v>
-      </c>
-      <c r="J85" s="3">
         <v>51</v>
       </c>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12">
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -3710,16 +3454,13 @@
       <c r="H86" s="3">
         <v>53</v>
       </c>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>38</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -3744,16 +3485,13 @@
       <c r="H87" s="3">
         <v>-1</v>
       </c>
-      <c r="I87" s="3">
-        <v>2</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3">
+      <c r="K87" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3778,18 +3516,15 @@
       <c r="H88" s="3">
         <v>-1</v>
       </c>
-      <c r="I88" s="3">
-        <v>22</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3">
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
         <v>-1</v>
       </c>
-      <c r="L88" s="3"/>
+      <c r="K88" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L88">
+  <conditionalFormatting sqref="A2:K88">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW()-2,2)=0</formula>
     </cfRule>
